--- a/Documentation/OCACS Metadata Descriptions.xlsx
+++ b/Documentation/OCACS Metadata Descriptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ocgov-my.sharepoint.com/personal/kostas_alexandridis_ocpw_ocgov_com/Documents/Projects/OCGeodemographics/Programming/OCACS-Geodemographics/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1208" documentId="8_{9324C973-F8A1-4AB7-BAAB-28A3A8AB10A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DE359E4-7C46-4D1B-86DF-880BDED02C91}"/>
+  <xr:revisionPtr revIDLastSave="1211" documentId="8_{9324C973-F8A1-4AB7-BAAB-28A3A8AB10A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9A097CF-5234-444D-AE76-66F5E4232FCC}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{5160C418-F79B-443D-8BCF-09BC5B282CDD}"/>
   </bookViews>
@@ -6160,10 +6160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80980682-1CA1-410B-939F-A0E3E8758655}">
   <dimension ref="A1:T393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection activeCell="G64" sqref="G64"/>
-      <selection pane="topRight" activeCell="P100" sqref="P100"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Documentation/OCACS Metadata Descriptions.xlsx
+++ b/Documentation/OCACS Metadata Descriptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ocgov-my.sharepoint.com/personal/kostas_alexandridis_ocpw_ocgov_com/Documents/Projects/OCGeodemographics/Programming/OCACS-Geodemographics/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1211" documentId="8_{9324C973-F8A1-4AB7-BAAB-28A3A8AB10A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9A097CF-5234-444D-AE76-66F5E4232FCC}"/>
+  <xr:revisionPtr revIDLastSave="1213" documentId="8_{9324C973-F8A1-4AB7-BAAB-28A3A8AB10A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5431ABF0-FD39-4643-97AA-58844DF06C9C}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{5160C418-F79B-443D-8BCF-09BC5B282CDD}"/>
   </bookViews>
@@ -6161,7 +6161,7 @@
   <dimension ref="A1:T393"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Documentation/OCACS Metadata Descriptions.xlsx
+++ b/Documentation/OCACS Metadata Descriptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ocgov-my.sharepoint.com/personal/kostas_alexandridis_ocpw_ocgov_com/Documents/Projects/OCGeodemographics/Programming/OCACS-Geodemographics/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1213" documentId="8_{9324C973-F8A1-4AB7-BAAB-28A3A8AB10A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5431ABF0-FD39-4643-97AA-58844DF06C9C}"/>
+  <xr:revisionPtr revIDLastSave="1231" documentId="8_{9324C973-F8A1-4AB7-BAAB-28A3A8AB10A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B31A51D-E202-45CA-AB4C-ABE7A2D56FD0}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{5160C418-F79B-443D-8BCF-09BC5B282CDD}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{5160C418-F79B-443D-8BCF-09BC5B282CDD}"/>
   </bookViews>
   <sheets>
     <sheet name="OCACS Metadata" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -6160,8 +6159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80980682-1CA1-410B-939F-A0E3E8758655}">
   <dimension ref="A1:T393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="G6" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Documentation/OCACS Metadata Descriptions.xlsx
+++ b/Documentation/OCACS Metadata Descriptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ocgov-my.sharepoint.com/personal/kostas_alexandridis_ocpw_ocgov_com/Documents/Projects/OCGeodemographics/Programming/OCACS-Geodemographics/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1231" documentId="8_{9324C973-F8A1-4AB7-BAAB-28A3A8AB10A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B31A51D-E202-45CA-AB4C-ABE7A2D56FD0}"/>
+  <xr:revisionPtr revIDLastSave="1236" documentId="8_{9324C973-F8A1-4AB7-BAAB-28A3A8AB10A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA8BEA41-F9D2-4A05-9479-44BF2BEE7E32}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{5160C418-F79B-443D-8BCF-09BC5B282CDD}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5160C418-F79B-443D-8BCF-09BC5B282CDD}"/>
   </bookViews>
   <sheets>
     <sheet name="OCACS Metadata" sheetId="1" r:id="rId1"/>
@@ -6159,29 +6159,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80980682-1CA1-410B-939F-A0E3E8758655}">
   <dimension ref="A1:T393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G6" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="G21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.06640625" style="1"/>
-    <col min="3" max="3" width="26.46484375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.06640625" style="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9" style="1"/>
     <col min="10" max="10" width="32" style="2" customWidth="1"/>
     <col min="11" max="11" width="42" style="2" customWidth="1"/>
-    <col min="12" max="12" width="53.73046875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="75.06640625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="45.796875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="53.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="75" style="2" customWidth="1"/>
+    <col min="14" max="14" width="45.85546875" style="2" customWidth="1"/>
     <col min="15" max="20" width="23" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.06640625" style="1"/>
+    <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" ht="180" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="171" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -6558,7 +6558,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="171" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="171" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -6684,7 +6684,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="171" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -7188,7 +7188,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -7251,7 +7251,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -7314,7 +7314,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -7440,7 +7440,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -7566,7 +7566,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -7629,7 +7629,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
@@ -7692,7 +7692,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
@@ -7755,7 +7755,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
@@ -8007,7 +8007,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -8070,7 +8070,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -8133,7 +8133,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
@@ -8196,7 +8196,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>2</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>2</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>2</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>2</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>2</v>
       </c>
@@ -8511,7 +8511,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -8574,7 +8574,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>2</v>
       </c>
@@ -8637,7 +8637,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
@@ -8700,7 +8700,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>2</v>
       </c>
@@ -8763,7 +8763,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>2</v>
       </c>
@@ -8826,7 +8826,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>2</v>
       </c>
@@ -8889,7 +8889,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>2</v>
       </c>
@@ -8952,7 +8952,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>2</v>
       </c>
@@ -9015,7 +9015,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>2</v>
       </c>
@@ -9078,7 +9078,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>2</v>
       </c>
@@ -9141,7 +9141,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="384.75" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>2</v>
       </c>
@@ -9204,7 +9204,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="384.75" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>2</v>
       </c>
@@ -9267,7 +9267,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="384.75" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>2</v>
       </c>
@@ -9330,7 +9330,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>2</v>
       </c>
@@ -9393,7 +9393,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>2</v>
       </c>
@@ -9456,7 +9456,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>2</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>2</v>
       </c>
@@ -9582,7 +9582,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="384.75" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>2</v>
       </c>
@@ -9645,7 +9645,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>2</v>
       </c>
@@ -9708,7 +9708,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>2</v>
       </c>
@@ -9771,7 +9771,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:20" ht="180" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>2</v>
       </c>
@@ -9834,7 +9834,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>2</v>
       </c>
@@ -9897,7 +9897,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>2</v>
       </c>
@@ -9960,7 +9960,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>2</v>
       </c>
@@ -10023,7 +10023,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="171" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>2</v>
       </c>
@@ -10086,7 +10086,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="171" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>2</v>
       </c>
@@ -10149,7 +10149,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="171" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>2</v>
       </c>
@@ -10212,7 +10212,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>2</v>
       </c>
@@ -10275,7 +10275,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>2</v>
       </c>
@@ -10338,7 +10338,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>2</v>
       </c>
@@ -10401,7 +10401,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>2</v>
       </c>
@@ -10464,7 +10464,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="171" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>2</v>
       </c>
@@ -10527,7 +10527,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>2</v>
       </c>
@@ -10590,7 +10590,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>2</v>
       </c>
@@ -10653,7 +10653,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>2</v>
       </c>
@@ -10716,7 +10716,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>2</v>
       </c>
@@ -10779,7 +10779,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>2</v>
       </c>
@@ -10842,7 +10842,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>2</v>
       </c>
@@ -10905,7 +10905,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>2</v>
       </c>
@@ -10968,7 +10968,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>2</v>
       </c>
@@ -11031,7 +11031,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>2</v>
       </c>
@@ -11094,7 +11094,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>2</v>
       </c>
@@ -11157,7 +11157,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>2</v>
       </c>
@@ -11220,7 +11220,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>2</v>
       </c>
@@ -11283,7 +11283,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>2</v>
       </c>
@@ -11346,7 +11346,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>2</v>
       </c>
@@ -11409,7 +11409,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>2</v>
       </c>
@@ -11472,7 +11472,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>2</v>
       </c>
@@ -11535,7 +11535,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>2</v>
       </c>
@@ -11598,7 +11598,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>2</v>
       </c>
@@ -11661,7 +11661,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>2</v>
       </c>
@@ -11724,7 +11724,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>2</v>
       </c>
@@ -11787,7 +11787,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>2</v>
       </c>
@@ -11850,7 +11850,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>2</v>
       </c>
@@ -11913,7 +11913,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>2</v>
       </c>
@@ -11976,7 +11976,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>2</v>
       </c>
@@ -12039,7 +12039,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>2</v>
       </c>
@@ -12102,7 +12102,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>2</v>
       </c>
@@ -12165,7 +12165,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>2</v>
       </c>
@@ -12228,7 +12228,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>2</v>
       </c>
@@ -12291,7 +12291,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>2</v>
       </c>
@@ -12354,7 +12354,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>2</v>
       </c>
@@ -12417,7 +12417,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>2</v>
       </c>
@@ -12468,7 +12468,7 @@
       <c r="S100" s="2"/>
       <c r="T100" s="2"/>
     </row>
-    <row r="101" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>2</v>
       </c>
@@ -12519,7 +12519,7 @@
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
     </row>
-    <row r="102" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>2</v>
       </c>
@@ -12570,7 +12570,7 @@
       <c r="S102" s="2"/>
       <c r="T102" s="2"/>
     </row>
-    <row r="103" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>2</v>
       </c>
@@ -12621,7 +12621,7 @@
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
     </row>
-    <row r="104" spans="1:20" ht="384.75" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>2</v>
       </c>
@@ -12672,7 +12672,7 @@
       <c r="S104" s="2"/>
       <c r="T104" s="2"/>
     </row>
-    <row r="105" spans="1:20" ht="384.75" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>2</v>
       </c>
@@ -12723,7 +12723,7 @@
       <c r="S105" s="2"/>
       <c r="T105" s="2"/>
     </row>
-    <row r="106" spans="1:20" ht="384.75" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>2</v>
       </c>
@@ -12774,7 +12774,7 @@
       <c r="S106" s="2"/>
       <c r="T106" s="2"/>
     </row>
-    <row r="107" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>2</v>
       </c>
@@ -12825,7 +12825,7 @@
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
     </row>
-    <row r="108" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>2</v>
       </c>
@@ -12876,7 +12876,7 @@
       <c r="S108" s="2"/>
       <c r="T108" s="2"/>
     </row>
-    <row r="109" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>2</v>
       </c>
@@ -12927,7 +12927,7 @@
       <c r="S109" s="2"/>
       <c r="T109" s="2"/>
     </row>
-    <row r="110" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>2</v>
       </c>
@@ -12978,7 +12978,7 @@
       <c r="S110" s="2"/>
       <c r="T110" s="2"/>
     </row>
-    <row r="111" spans="1:20" ht="384.75" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>2</v>
       </c>
@@ -13029,7 +13029,7 @@
       <c r="S111" s="2"/>
       <c r="T111" s="2"/>
     </row>
-    <row r="112" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>2</v>
       </c>
@@ -13080,7 +13080,7 @@
       <c r="S112" s="2"/>
       <c r="T112" s="2"/>
     </row>
-    <row r="113" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>2</v>
       </c>
@@ -13131,7 +13131,7 @@
       <c r="S113" s="2"/>
       <c r="T113" s="2"/>
     </row>
-    <row r="114" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:20" ht="180" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>2</v>
       </c>
@@ -13182,7 +13182,7 @@
       <c r="S114" s="2"/>
       <c r="T114" s="2"/>
     </row>
-    <row r="115" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>2</v>
       </c>
@@ -13233,7 +13233,7 @@
       <c r="S115" s="2"/>
       <c r="T115" s="2"/>
     </row>
-    <row r="116" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>2</v>
       </c>
@@ -13284,7 +13284,7 @@
       <c r="S116" s="2"/>
       <c r="T116" s="2"/>
     </row>
-    <row r="117" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>2</v>
       </c>
@@ -13335,7 +13335,7 @@
       <c r="S117" s="2"/>
       <c r="T117" s="2"/>
     </row>
-    <row r="118" spans="1:20" ht="171" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>2</v>
       </c>
@@ -13386,7 +13386,7 @@
       <c r="S118" s="2"/>
       <c r="T118" s="2"/>
     </row>
-    <row r="119" spans="1:20" ht="171" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>2</v>
       </c>
@@ -13437,7 +13437,7 @@
       <c r="S119" s="2"/>
       <c r="T119" s="2"/>
     </row>
-    <row r="120" spans="1:20" ht="171" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>2</v>
       </c>
@@ -13488,7 +13488,7 @@
       <c r="S120" s="2"/>
       <c r="T120" s="2"/>
     </row>
-    <row r="121" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>2</v>
       </c>
@@ -13539,7 +13539,7 @@
       <c r="S121" s="2"/>
       <c r="T121" s="2"/>
     </row>
-    <row r="122" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>2</v>
       </c>
@@ -13590,7 +13590,7 @@
       <c r="S122" s="2"/>
       <c r="T122" s="2"/>
     </row>
-    <row r="123" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>2</v>
       </c>
@@ -13641,7 +13641,7 @@
       <c r="S123" s="2"/>
       <c r="T123" s="2"/>
     </row>
-    <row r="124" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>2</v>
       </c>
@@ -13692,7 +13692,7 @@
       <c r="S124" s="2"/>
       <c r="T124" s="2"/>
     </row>
-    <row r="125" spans="1:20" ht="171" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>2</v>
       </c>
@@ -13743,7 +13743,7 @@
       <c r="S125" s="2"/>
       <c r="T125" s="2"/>
     </row>
-    <row r="126" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>2</v>
       </c>
@@ -13794,7 +13794,7 @@
       <c r="S126" s="2"/>
       <c r="T126" s="2"/>
     </row>
-    <row r="127" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>2</v>
       </c>
@@ -13845,7 +13845,7 @@
       <c r="S127" s="2"/>
       <c r="T127" s="2"/>
     </row>
-    <row r="128" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>2</v>
       </c>
@@ -13896,7 +13896,7 @@
       <c r="S128" s="2"/>
       <c r="T128" s="2"/>
     </row>
-    <row r="129" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>2</v>
       </c>
@@ -13947,7 +13947,7 @@
       <c r="S129" s="2"/>
       <c r="T129" s="2"/>
     </row>
-    <row r="130" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>2</v>
       </c>
@@ -13998,7 +13998,7 @@
       <c r="S130" s="2"/>
       <c r="T130" s="2"/>
     </row>
-    <row r="131" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>2</v>
       </c>
@@ -14049,7 +14049,7 @@
       <c r="S131" s="2"/>
       <c r="T131" s="2"/>
     </row>
-    <row r="132" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>2</v>
       </c>
@@ -14100,7 +14100,7 @@
       <c r="S132" s="2"/>
       <c r="T132" s="2"/>
     </row>
-    <row r="133" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>2</v>
       </c>
@@ -14151,7 +14151,7 @@
       <c r="S133" s="2"/>
       <c r="T133" s="2"/>
     </row>
-    <row r="134" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>2</v>
       </c>
@@ -14202,7 +14202,7 @@
       <c r="S134" s="2"/>
       <c r="T134" s="2"/>
     </row>
-    <row r="135" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>2</v>
       </c>
@@ -14253,7 +14253,7 @@
       <c r="S135" s="2"/>
       <c r="T135" s="2"/>
     </row>
-    <row r="136" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>2</v>
       </c>
@@ -14304,7 +14304,7 @@
       <c r="S136" s="2"/>
       <c r="T136" s="2"/>
     </row>
-    <row r="137" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>2</v>
       </c>
@@ -14355,7 +14355,7 @@
       <c r="S137" s="2"/>
       <c r="T137" s="2"/>
     </row>
-    <row r="138" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>2</v>
       </c>
@@ -14406,7 +14406,7 @@
       <c r="S138" s="2"/>
       <c r="T138" s="2"/>
     </row>
-    <row r="139" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>2</v>
       </c>
@@ -14457,7 +14457,7 @@
       <c r="S139" s="2"/>
       <c r="T139" s="2"/>
     </row>
-    <row r="140" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>2</v>
       </c>
@@ -14508,7 +14508,7 @@
       <c r="S140" s="2"/>
       <c r="T140" s="2"/>
     </row>
-    <row r="141" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>2</v>
       </c>
@@ -14559,7 +14559,7 @@
       <c r="S141" s="2"/>
       <c r="T141" s="2"/>
     </row>
-    <row r="142" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>2</v>
       </c>
@@ -14610,7 +14610,7 @@
       <c r="S142" s="2"/>
       <c r="T142" s="2"/>
     </row>
-    <row r="143" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>2</v>
       </c>
@@ -14661,7 +14661,7 @@
       <c r="S143" s="2"/>
       <c r="T143" s="2"/>
     </row>
-    <row r="144" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>2</v>
       </c>
@@ -14712,7 +14712,7 @@
       <c r="S144" s="2"/>
       <c r="T144" s="2"/>
     </row>
-    <row r="145" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>2</v>
       </c>
@@ -14763,7 +14763,7 @@
       <c r="S145" s="2"/>
       <c r="T145" s="2"/>
     </row>
-    <row r="146" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>2</v>
       </c>
@@ -14814,7 +14814,7 @@
       <c r="S146" s="2"/>
       <c r="T146" s="2"/>
     </row>
-    <row r="147" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>2</v>
       </c>
@@ -14865,7 +14865,7 @@
       <c r="S147" s="2"/>
       <c r="T147" s="2"/>
     </row>
-    <row r="148" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>2</v>
       </c>
@@ -14916,7 +14916,7 @@
       <c r="S148" s="2"/>
       <c r="T148" s="2"/>
     </row>
-    <row r="149" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>2</v>
       </c>
@@ -14967,7 +14967,7 @@
       <c r="S149" s="2"/>
       <c r="T149" s="2"/>
     </row>
-    <row r="150" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>2</v>
       </c>
@@ -15018,7 +15018,7 @@
       <c r="S150" s="2"/>
       <c r="T150" s="2"/>
     </row>
-    <row r="151" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>2</v>
       </c>
@@ -15069,7 +15069,7 @@
       <c r="S151" s="2"/>
       <c r="T151" s="2"/>
     </row>
-    <row r="152" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>2</v>
       </c>
@@ -15120,7 +15120,7 @@
       <c r="S152" s="2"/>
       <c r="T152" s="2"/>
     </row>
-    <row r="153" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>2</v>
       </c>
@@ -15171,7 +15171,7 @@
       <c r="S153" s="2"/>
       <c r="T153" s="2"/>
     </row>
-    <row r="154" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>2</v>
       </c>
@@ -15222,7 +15222,7 @@
       <c r="S154" s="2"/>
       <c r="T154" s="2"/>
     </row>
-    <row r="155" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>2</v>
       </c>
@@ -15273,7 +15273,7 @@
       <c r="S155" s="2"/>
       <c r="T155" s="2"/>
     </row>
-    <row r="156" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>2</v>
       </c>
@@ -15324,7 +15324,7 @@
       <c r="S156" s="2"/>
       <c r="T156" s="2"/>
     </row>
-    <row r="157" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>2</v>
       </c>
@@ -15375,7 +15375,7 @@
       <c r="S157" s="2"/>
       <c r="T157" s="2"/>
     </row>
-    <row r="158" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>2</v>
       </c>
@@ -15426,7 +15426,7 @@
       <c r="S158" s="2"/>
       <c r="T158" s="2"/>
     </row>
-    <row r="159" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>2</v>
       </c>
@@ -15477,7 +15477,7 @@
       <c r="S159" s="2"/>
       <c r="T159" s="2"/>
     </row>
-    <row r="160" spans="1:20" ht="384.75" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>2</v>
       </c>
@@ -15528,7 +15528,7 @@
       <c r="S160" s="2"/>
       <c r="T160" s="2"/>
     </row>
-    <row r="161" spans="1:20" ht="384.75" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>2</v>
       </c>
@@ -15579,7 +15579,7 @@
       <c r="S161" s="2"/>
       <c r="T161" s="2"/>
     </row>
-    <row r="162" spans="1:20" ht="384.75" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>2</v>
       </c>
@@ -15630,7 +15630,7 @@
       <c r="S162" s="2"/>
       <c r="T162" s="2"/>
     </row>
-    <row r="163" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>2</v>
       </c>
@@ -15681,7 +15681,7 @@
       <c r="S163" s="2"/>
       <c r="T163" s="2"/>
     </row>
-    <row r="164" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>2</v>
       </c>
@@ -15732,7 +15732,7 @@
       <c r="S164" s="2"/>
       <c r="T164" s="2"/>
     </row>
-    <row r="165" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>2</v>
       </c>
@@ -15783,7 +15783,7 @@
       <c r="S165" s="2"/>
       <c r="T165" s="2"/>
     </row>
-    <row r="166" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>2</v>
       </c>
@@ -15834,7 +15834,7 @@
       <c r="S166" s="2"/>
       <c r="T166" s="2"/>
     </row>
-    <row r="167" spans="1:20" ht="384.75" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>2</v>
       </c>
@@ -15885,7 +15885,7 @@
       <c r="S167" s="2"/>
       <c r="T167" s="2"/>
     </row>
-    <row r="168" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>2</v>
       </c>
@@ -15936,7 +15936,7 @@
       <c r="S168" s="2"/>
       <c r="T168" s="2"/>
     </row>
-    <row r="169" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>2</v>
       </c>
@@ -15987,7 +15987,7 @@
       <c r="S169" s="2"/>
       <c r="T169" s="2"/>
     </row>
-    <row r="170" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:20" ht="180" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>2</v>
       </c>
@@ -16038,7 +16038,7 @@
       <c r="S170" s="2"/>
       <c r="T170" s="2"/>
     </row>
-    <row r="171" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>2</v>
       </c>
@@ -16089,7 +16089,7 @@
       <c r="S171" s="2"/>
       <c r="T171" s="2"/>
     </row>
-    <row r="172" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>2</v>
       </c>
@@ -16140,7 +16140,7 @@
       <c r="S172" s="2"/>
       <c r="T172" s="2"/>
     </row>
-    <row r="173" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>2</v>
       </c>
@@ -16191,7 +16191,7 @@
       <c r="S173" s="2"/>
       <c r="T173" s="2"/>
     </row>
-    <row r="174" spans="1:20" ht="171" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>2</v>
       </c>
@@ -16242,7 +16242,7 @@
       <c r="S174" s="2"/>
       <c r="T174" s="2"/>
     </row>
-    <row r="175" spans="1:20" ht="171" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>2</v>
       </c>
@@ -16293,7 +16293,7 @@
       <c r="S175" s="2"/>
       <c r="T175" s="2"/>
     </row>
-    <row r="176" spans="1:20" ht="171" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>2</v>
       </c>
@@ -16344,7 +16344,7 @@
       <c r="S176" s="2"/>
       <c r="T176" s="2"/>
     </row>
-    <row r="177" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>2</v>
       </c>
@@ -16395,7 +16395,7 @@
       <c r="S177" s="2"/>
       <c r="T177" s="2"/>
     </row>
-    <row r="178" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>2</v>
       </c>
@@ -16446,7 +16446,7 @@
       <c r="S178" s="2"/>
       <c r="T178" s="2"/>
     </row>
-    <row r="179" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>2</v>
       </c>
@@ -16497,7 +16497,7 @@
       <c r="S179" s="2"/>
       <c r="T179" s="2"/>
     </row>
-    <row r="180" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>2</v>
       </c>
@@ -16548,7 +16548,7 @@
       <c r="S180" s="2"/>
       <c r="T180" s="2"/>
     </row>
-    <row r="181" spans="1:20" ht="171" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>2</v>
       </c>
@@ -16599,7 +16599,7 @@
       <c r="S181" s="2"/>
       <c r="T181" s="2"/>
     </row>
-    <row r="182" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>2</v>
       </c>
@@ -16650,7 +16650,7 @@
       <c r="S182" s="2"/>
       <c r="T182" s="2"/>
     </row>
-    <row r="183" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>2</v>
       </c>
@@ -16701,7 +16701,7 @@
       <c r="S183" s="2"/>
       <c r="T183" s="2"/>
     </row>
-    <row r="184" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>2</v>
       </c>
@@ -16752,7 +16752,7 @@
       <c r="S184" s="2"/>
       <c r="T184" s="2"/>
     </row>
-    <row r="185" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>2</v>
       </c>
@@ -16803,7 +16803,7 @@
       <c r="S185" s="2"/>
       <c r="T185" s="2"/>
     </row>
-    <row r="186" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>2</v>
       </c>
@@ -16854,7 +16854,7 @@
       <c r="S186" s="2"/>
       <c r="T186" s="2"/>
     </row>
-    <row r="187" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>2</v>
       </c>
@@ -16905,7 +16905,7 @@
       <c r="S187" s="2"/>
       <c r="T187" s="2"/>
     </row>
-    <row r="188" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>2</v>
       </c>
@@ -16956,7 +16956,7 @@
       <c r="S188" s="2"/>
       <c r="T188" s="2"/>
     </row>
-    <row r="189" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>2</v>
       </c>
@@ -17007,7 +17007,7 @@
       <c r="S189" s="2"/>
       <c r="T189" s="2"/>
     </row>
-    <row r="190" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>2</v>
       </c>
@@ -17058,7 +17058,7 @@
       <c r="S190" s="2"/>
       <c r="T190" s="2"/>
     </row>
-    <row r="191" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>2</v>
       </c>
@@ -17109,7 +17109,7 @@
       <c r="S191" s="2"/>
       <c r="T191" s="2"/>
     </row>
-    <row r="192" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>2</v>
       </c>
@@ -17160,7 +17160,7 @@
       <c r="S192" s="2"/>
       <c r="T192" s="2"/>
     </row>
-    <row r="193" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>2</v>
       </c>
@@ -17211,7 +17211,7 @@
       <c r="S193" s="2"/>
       <c r="T193" s="2"/>
     </row>
-    <row r="194" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>2</v>
       </c>
@@ -17262,7 +17262,7 @@
       <c r="S194" s="2"/>
       <c r="T194" s="2"/>
     </row>
-    <row r="195" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>2</v>
       </c>
@@ -17313,7 +17313,7 @@
       <c r="S195" s="2"/>
       <c r="T195" s="2"/>
     </row>
-    <row r="196" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>2</v>
       </c>
@@ -17364,7 +17364,7 @@
       <c r="S196" s="2"/>
       <c r="T196" s="2"/>
     </row>
-    <row r="197" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>2</v>
       </c>
@@ -17415,7 +17415,7 @@
       <c r="S197" s="2"/>
       <c r="T197" s="2"/>
     </row>
-    <row r="198" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>2</v>
       </c>
@@ -17466,7 +17466,7 @@
       <c r="S198" s="2"/>
       <c r="T198" s="2"/>
     </row>
-    <row r="199" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>2</v>
       </c>
@@ -17517,7 +17517,7 @@
       <c r="S199" s="2"/>
       <c r="T199" s="2"/>
     </row>
-    <row r="200" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>2</v>
       </c>
@@ -17568,7 +17568,7 @@
       <c r="S200" s="2"/>
       <c r="T200" s="2"/>
     </row>
-    <row r="201" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>2</v>
       </c>
@@ -17619,7 +17619,7 @@
       <c r="S201" s="2"/>
       <c r="T201" s="2"/>
     </row>
-    <row r="202" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>2</v>
       </c>
@@ -17670,7 +17670,7 @@
       <c r="S202" s="2"/>
       <c r="T202" s="2"/>
     </row>
-    <row r="203" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>2</v>
       </c>
@@ -17721,7 +17721,7 @@
       <c r="S203" s="2"/>
       <c r="T203" s="2"/>
     </row>
-    <row r="204" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>2</v>
       </c>
@@ -17772,7 +17772,7 @@
       <c r="S204" s="2"/>
       <c r="T204" s="2"/>
     </row>
-    <row r="205" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>2</v>
       </c>
@@ -17823,7 +17823,7 @@
       <c r="S205" s="2"/>
       <c r="T205" s="2"/>
     </row>
-    <row r="206" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>2</v>
       </c>
@@ -17874,7 +17874,7 @@
       <c r="S206" s="2"/>
       <c r="T206" s="2"/>
     </row>
-    <row r="207" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>2</v>
       </c>
@@ -17925,7 +17925,7 @@
       <c r="S207" s="2"/>
       <c r="T207" s="2"/>
     </row>
-    <row r="208" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>2</v>
       </c>
@@ -17976,7 +17976,7 @@
       <c r="S208" s="2"/>
       <c r="T208" s="2"/>
     </row>
-    <row r="209" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>2</v>
       </c>
@@ -18027,7 +18027,7 @@
       <c r="S209" s="2"/>
       <c r="T209" s="2"/>
     </row>
-    <row r="210" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>2</v>
       </c>
@@ -18078,7 +18078,7 @@
       <c r="S210" s="2"/>
       <c r="T210" s="2"/>
     </row>
-    <row r="211" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>2</v>
       </c>
@@ -18129,7 +18129,7 @@
       <c r="S211" s="2"/>
       <c r="T211" s="2"/>
     </row>
-    <row r="212" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>2</v>
       </c>
@@ -18180,7 +18180,7 @@
       <c r="S212" s="2"/>
       <c r="T212" s="2"/>
     </row>
-    <row r="213" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>2</v>
       </c>
@@ -18231,7 +18231,7 @@
       <c r="S213" s="2"/>
       <c r="T213" s="2"/>
     </row>
-    <row r="214" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>2</v>
       </c>
@@ -18282,7 +18282,7 @@
       <c r="S214" s="2"/>
       <c r="T214" s="2"/>
     </row>
-    <row r="215" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>2</v>
       </c>
@@ -18333,7 +18333,7 @@
       <c r="S215" s="2"/>
       <c r="T215" s="2"/>
     </row>
-    <row r="216" spans="1:20" ht="384.75" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>2</v>
       </c>
@@ -18384,7 +18384,7 @@
       <c r="S216" s="2"/>
       <c r="T216" s="2"/>
     </row>
-    <row r="217" spans="1:20" ht="384.75" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>2</v>
       </c>
@@ -18435,7 +18435,7 @@
       <c r="S217" s="2"/>
       <c r="T217" s="2"/>
     </row>
-    <row r="218" spans="1:20" ht="384.75" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>2</v>
       </c>
@@ -18486,7 +18486,7 @@
       <c r="S218" s="2"/>
       <c r="T218" s="2"/>
     </row>
-    <row r="219" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>2</v>
       </c>
@@ -18537,7 +18537,7 @@
       <c r="S219" s="2"/>
       <c r="T219" s="2"/>
     </row>
-    <row r="220" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>2</v>
       </c>
@@ -18588,7 +18588,7 @@
       <c r="S220" s="2"/>
       <c r="T220" s="2"/>
     </row>
-    <row r="221" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>2</v>
       </c>
@@ -18639,7 +18639,7 @@
       <c r="S221" s="2"/>
       <c r="T221" s="2"/>
     </row>
-    <row r="222" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>2</v>
       </c>
@@ -18690,7 +18690,7 @@
       <c r="S222" s="2"/>
       <c r="T222" s="2"/>
     </row>
-    <row r="223" spans="1:20" ht="384.75" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>2</v>
       </c>
@@ -18741,7 +18741,7 @@
       <c r="S223" s="2"/>
       <c r="T223" s="2"/>
     </row>
-    <row r="224" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>2</v>
       </c>
@@ -18792,7 +18792,7 @@
       <c r="S224" s="2"/>
       <c r="T224" s="2"/>
     </row>
-    <row r="225" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>2</v>
       </c>
@@ -18843,7 +18843,7 @@
       <c r="S225" s="2"/>
       <c r="T225" s="2"/>
     </row>
-    <row r="226" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:20" ht="180" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>2</v>
       </c>
@@ -18894,7 +18894,7 @@
       <c r="S226" s="2"/>
       <c r="T226" s="2"/>
     </row>
-    <row r="227" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>2</v>
       </c>
@@ -18945,7 +18945,7 @@
       <c r="S227" s="2"/>
       <c r="T227" s="2"/>
     </row>
-    <row r="228" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>2</v>
       </c>
@@ -18996,7 +18996,7 @@
       <c r="S228" s="2"/>
       <c r="T228" s="2"/>
     </row>
-    <row r="229" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>2</v>
       </c>
@@ -19047,7 +19047,7 @@
       <c r="S229" s="2"/>
       <c r="T229" s="2"/>
     </row>
-    <row r="230" spans="1:20" ht="171" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>2</v>
       </c>
@@ -19098,7 +19098,7 @@
       <c r="S230" s="2"/>
       <c r="T230" s="2"/>
     </row>
-    <row r="231" spans="1:20" ht="171" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>2</v>
       </c>
@@ -19149,7 +19149,7 @@
       <c r="S231" s="2"/>
       <c r="T231" s="2"/>
     </row>
-    <row r="232" spans="1:20" ht="171" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>2</v>
       </c>
@@ -19200,7 +19200,7 @@
       <c r="S232" s="2"/>
       <c r="T232" s="2"/>
     </row>
-    <row r="233" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>2</v>
       </c>
@@ -19251,7 +19251,7 @@
       <c r="S233" s="2"/>
       <c r="T233" s="2"/>
     </row>
-    <row r="234" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>2</v>
       </c>
@@ -19302,7 +19302,7 @@
       <c r="S234" s="2"/>
       <c r="T234" s="2"/>
     </row>
-    <row r="235" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>2</v>
       </c>
@@ -19353,7 +19353,7 @@
       <c r="S235" s="2"/>
       <c r="T235" s="2"/>
     </row>
-    <row r="236" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>2</v>
       </c>
@@ -19404,7 +19404,7 @@
       <c r="S236" s="2"/>
       <c r="T236" s="2"/>
     </row>
-    <row r="237" spans="1:20" ht="171" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>2</v>
       </c>
@@ -19455,7 +19455,7 @@
       <c r="S237" s="2"/>
       <c r="T237" s="2"/>
     </row>
-    <row r="238" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>2</v>
       </c>
@@ -19506,7 +19506,7 @@
       <c r="S238" s="2"/>
       <c r="T238" s="2"/>
     </row>
-    <row r="239" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>2</v>
       </c>
@@ -19557,7 +19557,7 @@
       <c r="S239" s="2"/>
       <c r="T239" s="2"/>
     </row>
-    <row r="240" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>2</v>
       </c>
@@ -19608,7 +19608,7 @@
       <c r="S240" s="2"/>
       <c r="T240" s="2"/>
     </row>
-    <row r="241" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>2</v>
       </c>
@@ -19659,7 +19659,7 @@
       <c r="S241" s="2"/>
       <c r="T241" s="2"/>
     </row>
-    <row r="242" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>2</v>
       </c>
@@ -19710,7 +19710,7 @@
       <c r="S242" s="2"/>
       <c r="T242" s="2"/>
     </row>
-    <row r="243" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>2</v>
       </c>
@@ -19761,7 +19761,7 @@
       <c r="S243" s="2"/>
       <c r="T243" s="2"/>
     </row>
-    <row r="244" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>2</v>
       </c>
@@ -19812,7 +19812,7 @@
       <c r="S244" s="2"/>
       <c r="T244" s="2"/>
     </row>
-    <row r="245" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>2</v>
       </c>
@@ -19863,7 +19863,7 @@
       <c r="S245" s="2"/>
       <c r="T245" s="2"/>
     </row>
-    <row r="246" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>2</v>
       </c>
@@ -19914,7 +19914,7 @@
       <c r="S246" s="2"/>
       <c r="T246" s="2"/>
     </row>
-    <row r="247" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>2</v>
       </c>
@@ -19965,7 +19965,7 @@
       <c r="S247" s="2"/>
       <c r="T247" s="2"/>
     </row>
-    <row r="248" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>2</v>
       </c>
@@ -20016,7 +20016,7 @@
       <c r="S248" s="2"/>
       <c r="T248" s="2"/>
     </row>
-    <row r="249" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>2</v>
       </c>
@@ -20067,7 +20067,7 @@
       <c r="S249" s="2"/>
       <c r="T249" s="2"/>
     </row>
-    <row r="250" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>2</v>
       </c>
@@ -20118,7 +20118,7 @@
       <c r="S250" s="2"/>
       <c r="T250" s="2"/>
     </row>
-    <row r="251" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>2</v>
       </c>
@@ -20169,7 +20169,7 @@
       <c r="S251" s="2"/>
       <c r="T251" s="2"/>
     </row>
-    <row r="252" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>2</v>
       </c>
@@ -20220,7 +20220,7 @@
       <c r="S252" s="2"/>
       <c r="T252" s="2"/>
     </row>
-    <row r="253" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>2</v>
       </c>
@@ -20271,7 +20271,7 @@
       <c r="S253" s="2"/>
       <c r="T253" s="2"/>
     </row>
-    <row r="254" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>2</v>
       </c>
@@ -20322,7 +20322,7 @@
       <c r="S254" s="2"/>
       <c r="T254" s="2"/>
     </row>
-    <row r="255" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>2</v>
       </c>
@@ -20373,7 +20373,7 @@
       <c r="S255" s="2"/>
       <c r="T255" s="2"/>
     </row>
-    <row r="256" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>2</v>
       </c>
@@ -20424,7 +20424,7 @@
       <c r="S256" s="2"/>
       <c r="T256" s="2"/>
     </row>
-    <row r="257" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>2</v>
       </c>
@@ -20475,7 +20475,7 @@
       <c r="S257" s="2"/>
       <c r="T257" s="2"/>
     </row>
-    <row r="258" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>2</v>
       </c>
@@ -20526,7 +20526,7 @@
       <c r="S258" s="2"/>
       <c r="T258" s="2"/>
     </row>
-    <row r="259" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>2</v>
       </c>
@@ -20577,7 +20577,7 @@
       <c r="S259" s="2"/>
       <c r="T259" s="2"/>
     </row>
-    <row r="260" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>2</v>
       </c>
@@ -20628,7 +20628,7 @@
       <c r="S260" s="2"/>
       <c r="T260" s="2"/>
     </row>
-    <row r="261" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>2</v>
       </c>
@@ -20679,7 +20679,7 @@
       <c r="S261" s="2"/>
       <c r="T261" s="2"/>
     </row>
-    <row r="262" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>2</v>
       </c>
@@ -20730,7 +20730,7 @@
       <c r="S262" s="2"/>
       <c r="T262" s="2"/>
     </row>
-    <row r="263" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>2</v>
       </c>
@@ -20781,7 +20781,7 @@
       <c r="S263" s="2"/>
       <c r="T263" s="2"/>
     </row>
-    <row r="264" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>2</v>
       </c>
@@ -20832,7 +20832,7 @@
       <c r="S264" s="2"/>
       <c r="T264" s="2"/>
     </row>
-    <row r="265" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>2</v>
       </c>
@@ -20883,7 +20883,7 @@
       <c r="S265" s="2"/>
       <c r="T265" s="2"/>
     </row>
-    <row r="266" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>2</v>
       </c>
@@ -20934,7 +20934,7 @@
       <c r="S266" s="2"/>
       <c r="T266" s="2"/>
     </row>
-    <row r="267" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>2</v>
       </c>
@@ -20985,7 +20985,7 @@
       <c r="S267" s="2"/>
       <c r="T267" s="2"/>
     </row>
-    <row r="268" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>2</v>
       </c>
@@ -21036,7 +21036,7 @@
       <c r="S268" s="2"/>
       <c r="T268" s="2"/>
     </row>
-    <row r="269" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>2</v>
       </c>
@@ -21087,7 +21087,7 @@
       <c r="S269" s="2"/>
       <c r="T269" s="2"/>
     </row>
-    <row r="270" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>2</v>
       </c>
@@ -21138,7 +21138,7 @@
       <c r="S270" s="2"/>
       <c r="T270" s="2"/>
     </row>
-    <row r="271" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>2</v>
       </c>
@@ -21189,7 +21189,7 @@
       <c r="S271" s="2"/>
       <c r="T271" s="2"/>
     </row>
-    <row r="272" spans="1:20" ht="384.75" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>2</v>
       </c>
@@ -21240,7 +21240,7 @@
       <c r="S272" s="2"/>
       <c r="T272" s="2"/>
     </row>
-    <row r="273" spans="1:20" ht="384.75" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>2</v>
       </c>
@@ -21291,7 +21291,7 @@
       <c r="S273" s="2"/>
       <c r="T273" s="2"/>
     </row>
-    <row r="274" spans="1:20" ht="384.75" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>2</v>
       </c>
@@ -21342,7 +21342,7 @@
       <c r="S274" s="2"/>
       <c r="T274" s="2"/>
     </row>
-    <row r="275" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>2</v>
       </c>
@@ -21393,7 +21393,7 @@
       <c r="S275" s="2"/>
       <c r="T275" s="2"/>
     </row>
-    <row r="276" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>2</v>
       </c>
@@ -21444,7 +21444,7 @@
       <c r="S276" s="2"/>
       <c r="T276" s="2"/>
     </row>
-    <row r="277" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>2</v>
       </c>
@@ -21495,7 +21495,7 @@
       <c r="S277" s="2"/>
       <c r="T277" s="2"/>
     </row>
-    <row r="278" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>2</v>
       </c>
@@ -21546,7 +21546,7 @@
       <c r="S278" s="2"/>
       <c r="T278" s="2"/>
     </row>
-    <row r="279" spans="1:20" ht="384.75" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>2</v>
       </c>
@@ -21597,7 +21597,7 @@
       <c r="S279" s="2"/>
       <c r="T279" s="2"/>
     </row>
-    <row r="280" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>2</v>
       </c>
@@ -21648,7 +21648,7 @@
       <c r="S280" s="2"/>
       <c r="T280" s="2"/>
     </row>
-    <row r="281" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>2</v>
       </c>
@@ -21699,7 +21699,7 @@
       <c r="S281" s="2"/>
       <c r="T281" s="2"/>
     </row>
-    <row r="282" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:20" ht="180" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>2</v>
       </c>
@@ -21750,7 +21750,7 @@
       <c r="S282" s="2"/>
       <c r="T282" s="2"/>
     </row>
-    <row r="283" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>2</v>
       </c>
@@ -21801,7 +21801,7 @@
       <c r="S283" s="2"/>
       <c r="T283" s="2"/>
     </row>
-    <row r="284" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>2</v>
       </c>
@@ -21852,7 +21852,7 @@
       <c r="S284" s="2"/>
       <c r="T284" s="2"/>
     </row>
-    <row r="285" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>2</v>
       </c>
@@ -21903,7 +21903,7 @@
       <c r="S285" s="2"/>
       <c r="T285" s="2"/>
     </row>
-    <row r="286" spans="1:20" ht="171" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>2</v>
       </c>
@@ -21954,7 +21954,7 @@
       <c r="S286" s="2"/>
       <c r="T286" s="2"/>
     </row>
-    <row r="287" spans="1:20" ht="171" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>2</v>
       </c>
@@ -22005,7 +22005,7 @@
       <c r="S287" s="2"/>
       <c r="T287" s="2"/>
     </row>
-    <row r="288" spans="1:20" ht="171" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>2</v>
       </c>
@@ -22056,7 +22056,7 @@
       <c r="S288" s="2"/>
       <c r="T288" s="2"/>
     </row>
-    <row r="289" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>2</v>
       </c>
@@ -22107,7 +22107,7 @@
       <c r="S289" s="2"/>
       <c r="T289" s="2"/>
     </row>
-    <row r="290" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>2</v>
       </c>
@@ -22158,7 +22158,7 @@
       <c r="S290" s="2"/>
       <c r="T290" s="2"/>
     </row>
-    <row r="291" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>2</v>
       </c>
@@ -22209,7 +22209,7 @@
       <c r="S291" s="2"/>
       <c r="T291" s="2"/>
     </row>
-    <row r="292" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>2</v>
       </c>
@@ -22260,7 +22260,7 @@
       <c r="S292" s="2"/>
       <c r="T292" s="2"/>
     </row>
-    <row r="293" spans="1:20" ht="171" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>2</v>
       </c>
@@ -22311,7 +22311,7 @@
       <c r="S293" s="2"/>
       <c r="T293" s="2"/>
     </row>
-    <row r="294" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>2</v>
       </c>
@@ -22362,7 +22362,7 @@
       <c r="S294" s="2"/>
       <c r="T294" s="2"/>
     </row>
-    <row r="295" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>2</v>
       </c>
@@ -22413,7 +22413,7 @@
       <c r="S295" s="2"/>
       <c r="T295" s="2"/>
     </row>
-    <row r="296" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>2</v>
       </c>
@@ -22464,7 +22464,7 @@
       <c r="S296" s="2"/>
       <c r="T296" s="2"/>
     </row>
-    <row r="297" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>2</v>
       </c>
@@ -22515,7 +22515,7 @@
       <c r="S297" s="2"/>
       <c r="T297" s="2"/>
     </row>
-    <row r="298" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>2</v>
       </c>
@@ -22566,7 +22566,7 @@
       <c r="S298" s="2"/>
       <c r="T298" s="2"/>
     </row>
-    <row r="299" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>2</v>
       </c>
@@ -22617,7 +22617,7 @@
       <c r="S299" s="2"/>
       <c r="T299" s="2"/>
     </row>
-    <row r="300" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>2</v>
       </c>
@@ -22668,7 +22668,7 @@
       <c r="S300" s="2"/>
       <c r="T300" s="2"/>
     </row>
-    <row r="301" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>2</v>
       </c>
@@ -22719,7 +22719,7 @@
       <c r="S301" s="2"/>
       <c r="T301" s="2"/>
     </row>
-    <row r="302" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>2</v>
       </c>
@@ -22770,7 +22770,7 @@
       <c r="S302" s="2"/>
       <c r="T302" s="2"/>
     </row>
-    <row r="303" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>2</v>
       </c>
@@ -22821,7 +22821,7 @@
       <c r="S303" s="2"/>
       <c r="T303" s="2"/>
     </row>
-    <row r="304" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>2</v>
       </c>
@@ -22872,7 +22872,7 @@
       <c r="S304" s="2"/>
       <c r="T304" s="2"/>
     </row>
-    <row r="305" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>2</v>
       </c>
@@ -22923,7 +22923,7 @@
       <c r="S305" s="2"/>
       <c r="T305" s="2"/>
     </row>
-    <row r="306" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>2</v>
       </c>
@@ -22974,7 +22974,7 @@
       <c r="S306" s="2"/>
       <c r="T306" s="2"/>
     </row>
-    <row r="307" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>2</v>
       </c>
@@ -23025,7 +23025,7 @@
       <c r="S307" s="2"/>
       <c r="T307" s="2"/>
     </row>
-    <row r="308" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>2</v>
       </c>
@@ -23076,7 +23076,7 @@
       <c r="S308" s="2"/>
       <c r="T308" s="2"/>
     </row>
-    <row r="309" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>2</v>
       </c>
@@ -23127,7 +23127,7 @@
       <c r="S309" s="2"/>
       <c r="T309" s="2"/>
     </row>
-    <row r="310" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>2</v>
       </c>
@@ -23178,7 +23178,7 @@
       <c r="S310" s="2"/>
       <c r="T310" s="2"/>
     </row>
-    <row r="311" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>2</v>
       </c>
@@ -23229,7 +23229,7 @@
       <c r="S311" s="2"/>
       <c r="T311" s="2"/>
     </row>
-    <row r="312" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>2</v>
       </c>
@@ -23280,7 +23280,7 @@
       <c r="S312" s="2"/>
       <c r="T312" s="2"/>
     </row>
-    <row r="313" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>2</v>
       </c>
@@ -23331,7 +23331,7 @@
       <c r="S313" s="2"/>
       <c r="T313" s="2"/>
     </row>
-    <row r="314" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>2</v>
       </c>
@@ -23382,7 +23382,7 @@
       <c r="S314" s="2"/>
       <c r="T314" s="2"/>
     </row>
-    <row r="315" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>2</v>
       </c>
@@ -23433,7 +23433,7 @@
       <c r="S315" s="2"/>
       <c r="T315" s="2"/>
     </row>
-    <row r="316" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>2</v>
       </c>
@@ -23484,7 +23484,7 @@
       <c r="S316" s="2"/>
       <c r="T316" s="2"/>
     </row>
-    <row r="317" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>2</v>
       </c>
@@ -23535,7 +23535,7 @@
       <c r="S317" s="2"/>
       <c r="T317" s="2"/>
     </row>
-    <row r="318" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>2</v>
       </c>
@@ -23586,7 +23586,7 @@
       <c r="S318" s="2"/>
       <c r="T318" s="2"/>
     </row>
-    <row r="319" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>2</v>
       </c>
@@ -23637,7 +23637,7 @@
       <c r="S319" s="2"/>
       <c r="T319" s="2"/>
     </row>
-    <row r="320" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>2</v>
       </c>
@@ -23688,7 +23688,7 @@
       <c r="S320" s="2"/>
       <c r="T320" s="2"/>
     </row>
-    <row r="321" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>2</v>
       </c>
@@ -23739,7 +23739,7 @@
       <c r="S321" s="2"/>
       <c r="T321" s="2"/>
     </row>
-    <row r="322" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>2</v>
       </c>
@@ -23790,7 +23790,7 @@
       <c r="S322" s="2"/>
       <c r="T322" s="2"/>
     </row>
-    <row r="323" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>2</v>
       </c>
@@ -23841,7 +23841,7 @@
       <c r="S323" s="2"/>
       <c r="T323" s="2"/>
     </row>
-    <row r="324" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>2</v>
       </c>
@@ -23892,7 +23892,7 @@
       <c r="S324" s="2"/>
       <c r="T324" s="2"/>
     </row>
-    <row r="325" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>2</v>
       </c>
@@ -23943,7 +23943,7 @@
       <c r="S325" s="2"/>
       <c r="T325" s="2"/>
     </row>
-    <row r="326" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>2</v>
       </c>
@@ -23994,7 +23994,7 @@
       <c r="S326" s="2"/>
       <c r="T326" s="2"/>
     </row>
-    <row r="327" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>2</v>
       </c>
@@ -24045,7 +24045,7 @@
       <c r="S327" s="2"/>
       <c r="T327" s="2"/>
     </row>
-    <row r="328" spans="1:20" ht="384.75" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>2</v>
       </c>
@@ -24096,7 +24096,7 @@
       <c r="S328" s="2"/>
       <c r="T328" s="2"/>
     </row>
-    <row r="329" spans="1:20" ht="384.75" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>2</v>
       </c>
@@ -24147,7 +24147,7 @@
       <c r="S329" s="2"/>
       <c r="T329" s="2"/>
     </row>
-    <row r="330" spans="1:20" ht="384.75" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>2</v>
       </c>
@@ -24198,7 +24198,7 @@
       <c r="S330" s="2"/>
       <c r="T330" s="2"/>
     </row>
-    <row r="331" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>2</v>
       </c>
@@ -24249,7 +24249,7 @@
       <c r="S331" s="2"/>
       <c r="T331" s="2"/>
     </row>
-    <row r="332" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>2</v>
       </c>
@@ -24300,7 +24300,7 @@
       <c r="S332" s="2"/>
       <c r="T332" s="2"/>
     </row>
-    <row r="333" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>2</v>
       </c>
@@ -24351,7 +24351,7 @@
       <c r="S333" s="2"/>
       <c r="T333" s="2"/>
     </row>
-    <row r="334" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>2</v>
       </c>
@@ -24402,7 +24402,7 @@
       <c r="S334" s="2"/>
       <c r="T334" s="2"/>
     </row>
-    <row r="335" spans="1:20" ht="384.75" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>2</v>
       </c>
@@ -24453,7 +24453,7 @@
       <c r="S335" s="2"/>
       <c r="T335" s="2"/>
     </row>
-    <row r="336" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>2</v>
       </c>
@@ -24504,7 +24504,7 @@
       <c r="S336" s="2"/>
       <c r="T336" s="2"/>
     </row>
-    <row r="337" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>2</v>
       </c>
@@ -24555,7 +24555,7 @@
       <c r="S337" s="2"/>
       <c r="T337" s="2"/>
     </row>
-    <row r="338" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:20" ht="180" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>2</v>
       </c>
@@ -24606,7 +24606,7 @@
       <c r="S338" s="2"/>
       <c r="T338" s="2"/>
     </row>
-    <row r="339" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>2</v>
       </c>
@@ -24657,7 +24657,7 @@
       <c r="S339" s="2"/>
       <c r="T339" s="2"/>
     </row>
-    <row r="340" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>2</v>
       </c>
@@ -24708,7 +24708,7 @@
       <c r="S340" s="2"/>
       <c r="T340" s="2"/>
     </row>
-    <row r="341" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>2</v>
       </c>
@@ -24759,7 +24759,7 @@
       <c r="S341" s="2"/>
       <c r="T341" s="2"/>
     </row>
-    <row r="342" spans="1:20" ht="171" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>2</v>
       </c>
@@ -24810,7 +24810,7 @@
       <c r="S342" s="2"/>
       <c r="T342" s="2"/>
     </row>
-    <row r="343" spans="1:20" ht="171" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>2</v>
       </c>
@@ -24861,7 +24861,7 @@
       <c r="S343" s="2"/>
       <c r="T343" s="2"/>
     </row>
-    <row r="344" spans="1:20" ht="171" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>2</v>
       </c>
@@ -24912,7 +24912,7 @@
       <c r="S344" s="2"/>
       <c r="T344" s="2"/>
     </row>
-    <row r="345" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>2</v>
       </c>
@@ -24963,7 +24963,7 @@
       <c r="S345" s="2"/>
       <c r="T345" s="2"/>
     </row>
-    <row r="346" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>2</v>
       </c>
@@ -25014,7 +25014,7 @@
       <c r="S346" s="2"/>
       <c r="T346" s="2"/>
     </row>
-    <row r="347" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>2</v>
       </c>
@@ -25065,7 +25065,7 @@
       <c r="S347" s="2"/>
       <c r="T347" s="2"/>
     </row>
-    <row r="348" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>2</v>
       </c>
@@ -25116,7 +25116,7 @@
       <c r="S348" s="2"/>
       <c r="T348" s="2"/>
     </row>
-    <row r="349" spans="1:20" ht="171" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>2</v>
       </c>
@@ -25167,7 +25167,7 @@
       <c r="S349" s="2"/>
       <c r="T349" s="2"/>
     </row>
-    <row r="350" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>2</v>
       </c>
@@ -25218,7 +25218,7 @@
       <c r="S350" s="2"/>
       <c r="T350" s="2"/>
     </row>
-    <row r="351" spans="1:20" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>2</v>
       </c>
@@ -25269,7 +25269,7 @@
       <c r="S351" s="2"/>
       <c r="T351" s="2"/>
     </row>
-    <row r="352" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>2</v>
       </c>
@@ -25320,7 +25320,7 @@
       <c r="S352" s="2"/>
       <c r="T352" s="2"/>
     </row>
-    <row r="353" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>2</v>
       </c>
@@ -25371,7 +25371,7 @@
       <c r="S353" s="2"/>
       <c r="T353" s="2"/>
     </row>
-    <row r="354" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>2</v>
       </c>
@@ -25422,7 +25422,7 @@
       <c r="S354" s="2"/>
       <c r="T354" s="2"/>
     </row>
-    <row r="355" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>2</v>
       </c>
@@ -25473,7 +25473,7 @@
       <c r="S355" s="2"/>
       <c r="T355" s="2"/>
     </row>
-    <row r="356" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>2</v>
       </c>
@@ -25524,7 +25524,7 @@
       <c r="S356" s="2"/>
       <c r="T356" s="2"/>
     </row>
-    <row r="357" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>2</v>
       </c>
@@ -25575,7 +25575,7 @@
       <c r="S357" s="2"/>
       <c r="T357" s="2"/>
     </row>
-    <row r="358" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>2</v>
       </c>
@@ -25626,7 +25626,7 @@
       <c r="S358" s="2"/>
       <c r="T358" s="2"/>
     </row>
-    <row r="359" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>2</v>
       </c>
@@ -25677,7 +25677,7 @@
       <c r="S359" s="2"/>
       <c r="T359" s="2"/>
     </row>
-    <row r="360" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>2</v>
       </c>
@@ -25728,7 +25728,7 @@
       <c r="S360" s="2"/>
       <c r="T360" s="2"/>
     </row>
-    <row r="361" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>2</v>
       </c>
@@ -25779,7 +25779,7 @@
       <c r="S361" s="2"/>
       <c r="T361" s="2"/>
     </row>
-    <row r="362" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>2</v>
       </c>
@@ -25830,7 +25830,7 @@
       <c r="S362" s="2"/>
       <c r="T362" s="2"/>
     </row>
-    <row r="363" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>2</v>
       </c>
@@ -25881,7 +25881,7 @@
       <c r="S363" s="2"/>
       <c r="T363" s="2"/>
     </row>
-    <row r="364" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>2</v>
       </c>
@@ -25932,7 +25932,7 @@
       <c r="S364" s="2"/>
       <c r="T364" s="2"/>
     </row>
-    <row r="365" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>2</v>
       </c>
@@ -25983,7 +25983,7 @@
       <c r="S365" s="2"/>
       <c r="T365" s="2"/>
     </row>
-    <row r="366" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>2</v>
       </c>
@@ -26034,7 +26034,7 @@
       <c r="S366" s="2"/>
       <c r="T366" s="2"/>
     </row>
-    <row r="367" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>2</v>
       </c>
@@ -26085,7 +26085,7 @@
       <c r="S367" s="2"/>
       <c r="T367" s="2"/>
     </row>
-    <row r="368" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>2</v>
       </c>
@@ -26136,7 +26136,7 @@
       <c r="S368" s="2"/>
       <c r="T368" s="2"/>
     </row>
-    <row r="369" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>2</v>
       </c>
@@ -26187,7 +26187,7 @@
       <c r="S369" s="2"/>
       <c r="T369" s="2"/>
     </row>
-    <row r="370" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>2</v>
       </c>
@@ -26238,7 +26238,7 @@
       <c r="S370" s="2"/>
       <c r="T370" s="2"/>
     </row>
-    <row r="371" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>2</v>
       </c>
@@ -26289,7 +26289,7 @@
       <c r="S371" s="2"/>
       <c r="T371" s="2"/>
     </row>
-    <row r="372" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>2</v>
       </c>
@@ -26340,7 +26340,7 @@
       <c r="S372" s="2"/>
       <c r="T372" s="2"/>
     </row>
-    <row r="373" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>2</v>
       </c>
@@ -26391,7 +26391,7 @@
       <c r="S373" s="2"/>
       <c r="T373" s="2"/>
     </row>
-    <row r="374" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>2</v>
       </c>
@@ -26442,7 +26442,7 @@
       <c r="S374" s="2"/>
       <c r="T374" s="2"/>
     </row>
-    <row r="375" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>2</v>
       </c>
@@ -26493,7 +26493,7 @@
       <c r="S375" s="2"/>
       <c r="T375" s="2"/>
     </row>
-    <row r="376" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>2</v>
       </c>
@@ -26544,7 +26544,7 @@
       <c r="S376" s="2"/>
       <c r="T376" s="2"/>
     </row>
-    <row r="377" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>2</v>
       </c>
@@ -26595,7 +26595,7 @@
       <c r="S377" s="2"/>
       <c r="T377" s="2"/>
     </row>
-    <row r="378" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>2</v>
       </c>
@@ -26646,7 +26646,7 @@
       <c r="S378" s="2"/>
       <c r="T378" s="2"/>
     </row>
-    <row r="379" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>2</v>
       </c>
@@ -26697,7 +26697,7 @@
       <c r="S379" s="2"/>
       <c r="T379" s="2"/>
     </row>
-    <row r="380" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>2</v>
       </c>
@@ -26748,7 +26748,7 @@
       <c r="S380" s="2"/>
       <c r="T380" s="2"/>
     </row>
-    <row r="381" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>2</v>
       </c>
@@ -26799,7 +26799,7 @@
       <c r="S381" s="2"/>
       <c r="T381" s="2"/>
     </row>
-    <row r="382" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>2</v>
       </c>
@@ -26850,7 +26850,7 @@
       <c r="S382" s="2"/>
       <c r="T382" s="2"/>
     </row>
-    <row r="383" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>2</v>
       </c>
@@ -26901,7 +26901,7 @@
       <c r="S383" s="2"/>
       <c r="T383" s="2"/>
     </row>
-    <row r="384" spans="1:20" ht="384.75" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>2</v>
       </c>
@@ -26952,7 +26952,7 @@
       <c r="S384" s="2"/>
       <c r="T384" s="2"/>
     </row>
-    <row r="385" spans="1:20" ht="384.75" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>2</v>
       </c>
@@ -27003,7 +27003,7 @@
       <c r="S385" s="2"/>
       <c r="T385" s="2"/>
     </row>
-    <row r="386" spans="1:20" ht="384.75" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>2</v>
       </c>
@@ -27054,7 +27054,7 @@
       <c r="S386" s="2"/>
       <c r="T386" s="2"/>
     </row>
-    <row r="387" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>2</v>
       </c>
@@ -27105,7 +27105,7 @@
       <c r="S387" s="2"/>
       <c r="T387" s="2"/>
     </row>
-    <row r="388" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>2</v>
       </c>
@@ -27156,7 +27156,7 @@
       <c r="S388" s="2"/>
       <c r="T388" s="2"/>
     </row>
-    <row r="389" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>2</v>
       </c>
@@ -27207,7 +27207,7 @@
       <c r="S389" s="2"/>
       <c r="T389" s="2"/>
     </row>
-    <row r="390" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>2</v>
       </c>
@@ -27258,7 +27258,7 @@
       <c r="S390" s="2"/>
       <c r="T390" s="2"/>
     </row>
-    <row r="391" spans="1:20" ht="384.75" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>2</v>
       </c>
@@ -27309,7 +27309,7 @@
       <c r="S391" s="2"/>
       <c r="T391" s="2"/>
     </row>
-    <row r="392" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>2</v>
       </c>
@@ -27360,7 +27360,7 @@
       <c r="S392" s="2"/>
       <c r="T392" s="2"/>
     </row>
-    <row r="393" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>2</v>
       </c>
